--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -41,8 +41,8 @@
     <t>Business trip</t>
   </si>
   <si>
-    <t>1. Enter "ПВТ Минск" as a destination, 08.10.2018 as a checkin date and 19.10.2018 as a checkout date for 1 adult;
-2.  Check "I'm travelling for work" and uncheck "Your results will be shown on the map." checkboxes;
+    <t>1. Enter "ПВТ Минск" as a destination, 08.10.2018 as a check in date and 19.10.2018 as a check out date for 1 adult;
+2.  Check "Я путешествую по работе" and uncheck "Результаты поиска будут показаны на карте" checkboxes;
 3. Filter only available bookings with 8+ rating, including breakfast, airport transfer and free Wi-Fi;
 4. Select hotel which is the closest to the destination;
 5. Check standard single room, press «I'll reserve» button;
@@ -59,12 +59,19 @@
     <t>IN PROGRESS</t>
   </si>
   <si>
+    <t>0. FOR ALL TESTS: Should I find locators by id (as I do) or by text? Id could be changed sometimes (They changed an id of one filter since last week).
+1. Test result is: «I can book at least five properties»
+Steps 4 — 6 must be completed.
+2. Filter «Расстояние от» can be either distance from landmark or distance by public transport. Fix it.</t>
+  </si>
+  <si>
     <t>Family vacations</t>
   </si>
   <si>
-    <t>1.  Enter Kotor as a destination, 11.05.2019 as a checkin date and 25.05.2019 as a checkout date for 2 adults and 2 children (age of 10 and 14) in one room;
-2. Filter only available bookings with 8+ rating;
-3. Select the first result;
+    <t>1.  Enter «Kotor» as a destination, 11.05.2019 as a check in date and 25.05.2019 as a check out date for 2 adults and 2 children (age of 10 and 14) in one room;
+2. Filter only available bookings with 8+ rating at the beach-front;
+3. Sort search results by review score and number of reviews;
+4. Select the first result;
 5. Check first room type, press «I'll reserve» button;
 6. Check final price.</t>
   </si>
@@ -72,37 +79,32 @@
     <t>I can book an apartments for a family at the seaside.</t>
   </si>
   <si>
+    <t>Test result is: «I can book at least six properties»
+Steps 4 — 6 must be completed.</t>
+  </si>
+  <si>
     <t>Hostel</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter «Berlin» as a destination, 07.09.2018 as a checkin and 09.09.2018 as a checkout date for4 adults;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2. Filter only available bookings in hostel with 7+ rating, free booking cancel and 24/7 front desk;
-3. Chech search results.</t>
-    </r>
+    <t>1. Enter «Berlin» as a destination, 07.12.2018 as a check in and 09.12.2018 as a check out date for 4 adults;
+2. Filter only available bookings in hostel with 7+ rating, free booking cancel and 24/7 front desk;
+3. Sort search results by price;
+4. Check search results.</t>
   </si>
   <si>
     <t>I can find at least 3 hostels in Berlin for the next weekend for 4 adults.</t>
   </si>
   <si>
-    <t>NOT DONE</t>
+    <t>DONE</t>
   </si>
   <si>
     <t>Agrotourism</t>
   </si>
   <si>
-    <t>1.  Enter «Браславские озёра» as a destination, 07.09.2018 as a checkin date and 09.09.2018 as a checkout date for 10 adults;
-2. Filter only available entire place bookings near the beach with 8+ rating and sauna ;
-3. Select the first result;
+    <t>1.  Enter «Браславские озёра» as a destination, 21.09.2018 as a check in date and 23.09.2018 as a check out date for 10 adults;
+2. Filter only available entire place bookings near the beach with 8+ rating and sauna;
+3. Sort search results by review score and price;
+4. Select the first result;
 5. Check first room type, press «I'll reserve» button;
 6. Check final price.</t>
   </si>
@@ -110,24 +112,34 @@
     <t>I can book a house for a company.</t>
   </si>
   <si>
+    <t>Test result is: «I can book at least two houses for a company»
+Steps 4 — 6 must be completed.</t>
+  </si>
+  <si>
     <t>Popular Destination</t>
   </si>
   <si>
-    <t>1. Click «Cities» Then choose the most popular city;
-2. Choose only available booking with a 9+ rating and budget of 600 BYN per night;
-3. Check search results.</t>
+    <t>1. Click «Города»;
+2. Then choose the most popular city;
+3. Click «Лучшее предложение» (the cheapest weekend price);
+4. Choose only available booking with a 9+ rating and budget of 250 BYN per night. They should be located  in the city centre or in guests' favourite district if possible;
+5. Check search results.</t>
   </si>
   <si>
     <t>I can find at least 3 rooms in the most popular city for a weekend</t>
   </si>
   <si>
+    <t>LOW</t>
+  </si>
+  <si>
     <t>Mid-years deals</t>
   </si>
   <si>
-    <t>1. Click «Save 15% or more with Mid-Year Deals»
+    <t>1. Click «Сэкономьте на проживании от 15% с нашими Сезонными предложениями»
 2. Choose the first city in list;
-3. Find only available hotels in the center
-4. Check search results.
+3. Find only available hotels with 7+ rating;
+4. Find properties marked as «Сезонное предложение»;
+5. Check search results.
 </t>
   </si>
   <si>
@@ -151,11 +163,7 @@
 </t>
   </si>
   <si>
-    <t>DONE
-MAY BE UPGRADED</t>
-  </si>
-  <si>
-    <t>We need more asserts.</t>
+    <t>The test is not atomic. In real work it would be three independent tests.</t>
   </si>
 </sst>
 </file>
@@ -165,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,28 +232,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFCC00"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFCC00"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -305,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,16 +330,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -433,19 +413,19 @@
   </sheetPr>
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9897959183674"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.1275510204082"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9285714285714"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.3877551020408"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4438775510204"/>
   </cols>
   <sheetData>
@@ -493,7 +473,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="139.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="156.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -512,21 +492,23 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="141.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
@@ -534,7 +516,9 @@
       <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -542,83 +526,85 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="143.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="124.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="99.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -627,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>31</v>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
